--- a/data/elm_spring_2022/raw_data/Spring Quarter on-call schedule preference (Responses).xlsx
+++ b/data/elm_spring_2022/raw_data/Spring Quarter on-call schedule preference (Responses).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winston/Desktop/schedule-finder/data/elm_spring_2022/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4302A954-D1FE-4B4A-9A0A-60B0B926FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F7E3CD-09C4-9443-9D70-84BEB6DDFCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="840" windowWidth="40440" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="940" windowWidth="30380" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -531,27 +531,27 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="36" style="7" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="25" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="7" customWidth="1"/>
     <col min="11" max="11" width="26.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.1640625" style="7" customWidth="1"/>
     <col min="13" max="13" width="27.83203125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="31" style="7" customWidth="1"/>
+    <col min="14" max="14" width="81.83203125" style="7" customWidth="1"/>
     <col min="15" max="15" width="28.1640625" style="7" customWidth="1"/>
     <col min="16" max="16" width="27.33203125" style="7" customWidth="1"/>
     <col min="17" max="17" width="52.83203125" style="7" customWidth="1"/>
@@ -629,16 +629,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
@@ -659,7 +659,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>22</v>
